--- a/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E1093A-7286-4729-9666-CF81E5CFB84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B1D06C-794D-419D-98BF-00E0588B0983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17C176C1-06D3-47E9-9BBE-70FE51E98826}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E7D0F7-B601-4E00-8098-6B3E1A7210E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="392">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -83,1111 +83,1105 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>5,08%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>22,45%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>47,43%</t>
@@ -1196,25 +1190,25 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>53,87%</t>
+    <t>53,13%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1629,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431B8B11-108F-4829-A686-ED81F840628E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971B317-BAB3-4220-8C83-87EC37EDE435}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2091,13 +2085,13 @@
         <v>1947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2106,13 @@
         <v>1390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2127,13 +2121,13 @@
         <v>1594</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2142,13 +2136,13 @@
         <v>2984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2157,13 @@
         <v>5441</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2178,13 +2172,13 @@
         <v>11704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -2193,13 +2187,13 @@
         <v>17145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,10 +2396,10 @@
         <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2414,13 @@
         <v>5761</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2435,13 +2429,13 @@
         <v>9298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2450,13 +2444,13 @@
         <v>15059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2465,13 @@
         <v>26822</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -2486,13 +2480,13 @@
         <v>40501</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -2501,13 +2495,13 @@
         <v>67323</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2516,13 @@
         <v>35722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2537,13 +2531,13 @@
         <v>42327</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2552,13 +2546,13 @@
         <v>78049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>101741</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -2588,13 +2582,13 @@
         <v>95347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -2603,13 +2597,13 @@
         <v>197088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2659,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2680,10 +2674,10 @@
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2692,13 +2686,13 @@
         <v>13820</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -2707,13 +2701,13 @@
         <v>16082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>757</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2743,13 +2737,13 @@
         <v>1099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2758,13 +2752,13 @@
         <v>1856</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2773,13 @@
         <v>24952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2794,13 +2788,13 @@
         <v>28356</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -2809,13 +2803,13 @@
         <v>53308</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2824,13 @@
         <v>32675</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2845,13 +2839,13 @@
         <v>29780</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2860,13 +2854,13 @@
         <v>62455</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2875,13 @@
         <v>116472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -2896,13 +2890,13 @@
         <v>111691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -2911,13 +2905,13 @@
         <v>228163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2967,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2985,13 +2979,13 @@
         <v>4532</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3000,13 +2994,13 @@
         <v>1017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3015,13 +3009,13 @@
         <v>5549</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,10 +3033,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3051,13 +3045,13 @@
         <v>428</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3066,10 +3060,10 @@
         <v>2469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>189</v>
@@ -3296,10 +3290,10 @@
         <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>51</v>
@@ -3308,13 +3302,13 @@
         <v>24557</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>86</v>
@@ -3323,13 +3317,13 @@
         <v>44573</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3338,13 @@
         <v>5677</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3359,10 +3353,10 @@
         <v>2738</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>230</v>
@@ -3428,10 +3422,10 @@
         <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3440,13 @@
         <v>24502</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -3461,10 +3455,10 @@
         <v>16358</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>247</v>
@@ -3673,7 +3667,7 @@
         <v>274</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -3685,7 +3679,7 @@
         <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>276</v>
@@ -4032,7 +4026,7 @@
         <v>327</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="M48" s="7">
         <v>136</v>
@@ -4041,13 +4035,13 @@
         <v>110353</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4056,13 @@
         <v>145505</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H49" s="7">
         <v>133</v>
@@ -4077,13 +4071,13 @@
         <v>105725</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M49" s="7">
         <v>266</v>
@@ -4092,13 +4086,13 @@
         <v>251229</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4107,13 @@
         <v>129326</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
@@ -4128,13 +4122,13 @@
         <v>76586</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M50" s="7">
         <v>133</v>
@@ -4143,13 +4137,13 @@
         <v>205912</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>348</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4211,13 @@
         <v>118022</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H52" s="7">
         <v>234</v>
@@ -4232,13 +4226,13 @@
         <v>138596</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M52" s="7">
         <v>392</v>
@@ -4334,13 +4328,13 @@
         <v>184966</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M54" s="7">
         <v>490</v>
@@ -4349,13 +4343,13 @@
         <v>348459</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4364,13 @@
         <v>501157</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H55" s="7">
         <v>751</v>
@@ -4385,13 +4379,13 @@
         <v>480008</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="L55" s="7" t="s">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="M55" s="7">
         <v>1284</v>
@@ -4400,13 +4394,13 @@
         <v>981165</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4415,13 @@
         <v>774543</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H56" s="7">
         <v>1024</v>
@@ -4436,13 +4430,13 @@
         <v>824670</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>1742</v>
@@ -4451,13 +4445,13 @@
         <v>1599213</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,7 +4507,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B1D06C-794D-419D-98BF-00E0588B0983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{541D589D-8FDB-409B-BCD2-37761E661667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E7D0F7-B601-4E00-8098-6B3E1A7210E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{323FC0E4-D931-4A74-9B68-8AAD8BA16032}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1623,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1971B317-BAB3-4220-8C83-87EC37EDE435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F1170-7364-4487-849A-7FE16F22C11D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{541D589D-8FDB-409B-BCD2-37761E661667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96599F29-4AED-4775-B46E-0B7336AC9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{323FC0E4-D931-4A74-9B68-8AAD8BA16032}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E8A9FD2-B87F-4864-BBDA-16E10A9D849C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,1084 +104,1090 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>47,43%</t>
@@ -1190,25 +1196,25 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>53,13%</t>
+    <t>53,87%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1623,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F1170-7364-4487-849A-7FE16F22C11D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7493D-8019-486D-8FC6-0855D771E623}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2085,13 +2091,13 @@
         <v>1947</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2112,13 @@
         <v>1390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2121,13 +2127,13 @@
         <v>1594</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2136,13 +2142,13 @@
         <v>2984</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2163,13 @@
         <v>5441</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2172,13 +2178,13 @@
         <v>11704</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -2187,13 +2193,13 @@
         <v>17145</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,10 +2402,10 @@
         <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2420,13 @@
         <v>5761</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2429,13 +2435,13 @@
         <v>9298</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2444,13 +2450,13 @@
         <v>15059</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2471,13 @@
         <v>26822</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -2480,13 +2486,13 @@
         <v>40501</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -2495,13 +2501,13 @@
         <v>67323</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2522,13 @@
         <v>35722</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2531,13 +2537,13 @@
         <v>42327</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -2546,13 +2552,13 @@
         <v>78049</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2573,13 @@
         <v>101741</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -2582,13 +2588,13 @@
         <v>95347</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -2597,13 +2603,13 @@
         <v>197088</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2665,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2674,10 +2680,10 @@
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -2686,13 +2692,13 @@
         <v>13820</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -2701,13 +2707,13 @@
         <v>16082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>757</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2737,13 +2743,13 @@
         <v>1099</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2752,13 +2758,13 @@
         <v>1856</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2779,13 @@
         <v>24952</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -2788,13 +2794,13 @@
         <v>28356</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -2803,13 +2809,13 @@
         <v>53308</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2830,13 @@
         <v>32675</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2839,13 +2845,13 @@
         <v>29780</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2854,13 +2860,13 @@
         <v>62455</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2881,13 @@
         <v>116472</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
@@ -2890,13 +2896,13 @@
         <v>111691</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -2905,13 +2911,13 @@
         <v>228163</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +2973,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2979,13 +2985,13 @@
         <v>4532</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2994,13 +3000,13 @@
         <v>1017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3009,13 +3015,13 @@
         <v>5549</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,10 +3039,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3045,13 +3051,13 @@
         <v>428</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3060,10 +3066,10 @@
         <v>2469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>189</v>
@@ -3290,10 +3296,10 @@
         <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>51</v>
@@ -3302,13 +3308,13 @@
         <v>24557</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>86</v>
@@ -3317,13 +3323,13 @@
         <v>44573</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3344,13 @@
         <v>5677</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3353,10 +3359,10 @@
         <v>2738</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>230</v>
@@ -3422,10 +3428,10 @@
         <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3446,13 @@
         <v>24502</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -3455,10 +3461,10 @@
         <v>16358</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>247</v>
@@ -3667,7 +3673,7 @@
         <v>274</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -3679,7 +3685,7 @@
         <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>276</v>
@@ -4026,7 +4032,7 @@
         <v>327</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="M48" s="7">
         <v>136</v>
@@ -4035,13 +4041,13 @@
         <v>110353</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>145505</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H49" s="7">
         <v>133</v>
@@ -4071,13 +4077,13 @@
         <v>105725</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M49" s="7">
         <v>266</v>
@@ -4086,13 +4092,13 @@
         <v>251229</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4113,13 @@
         <v>129326</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
@@ -4122,13 +4128,13 @@
         <v>76586</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M50" s="7">
         <v>133</v>
@@ -4137,13 +4143,13 @@
         <v>205912</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>118022</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H52" s="7">
         <v>234</v>
@@ -4226,13 +4232,13 @@
         <v>138596</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="M52" s="7">
         <v>392</v>
@@ -4328,13 +4334,13 @@
         <v>184966</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M54" s="7">
         <v>490</v>
@@ -4343,13 +4349,13 @@
         <v>348459</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4370,13 @@
         <v>501157</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H55" s="7">
         <v>751</v>
@@ -4379,13 +4385,13 @@
         <v>480008</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="M55" s="7">
         <v>1284</v>
@@ -4394,13 +4400,13 @@
         <v>981165</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4421,13 @@
         <v>774543</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H56" s="7">
         <v>1024</v>
@@ -4430,13 +4436,13 @@
         <v>824670</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>1742</v>
@@ -4445,13 +4451,13 @@
         <v>1599213</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4513,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96599F29-4AED-4775-B46E-0B7336AC9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{248DB200-D37F-42D3-9905-574E2F85517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E8A9FD2-B87F-4864-BBDA-16E10A9D849C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E17C3136-5920-41DA-9CE4-67087D041959}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="387">
   <si>
     <t>Población según si con respecto al último año sus relaciones sexuales han sido satisfactorias para ambas partes en 2023 (Tasa respuesta: 46,93%)</t>
   </si>
@@ -80,1141 +80,1120 @@
     <t>1,1%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1629,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7493D-8019-486D-8FC6-0855D771E623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC86C8D9-AFFF-44C5-A16D-03D69D19C114}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1765,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>949</v>
+        <v>991</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1780,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>949</v>
+        <v>991</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1825,7 +1804,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1840,160 +1819,160 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>3360</v>
+        <v>3493</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>3519</v>
+        <v>3661</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>14369</v>
+        <v>16219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>19818</v>
+        <v>20919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
       </c>
       <c r="N7" s="7">
-        <v>34187</v>
+        <v>37138</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <v>147</v>
       </c>
       <c r="D8" s="7">
-        <v>116963</v>
+        <v>136777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>234</v>
       </c>
       <c r="I8" s="7">
-        <v>120290</v>
+        <v>128394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>381</v>
       </c>
       <c r="N8" s="7">
-        <v>237253</v>
+        <v>265171</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,51 +1984,51 @@
         <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>131491</v>
+        <v>153164</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>291</v>
       </c>
       <c r="I9" s="7">
-        <v>144417</v>
+        <v>153797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>465</v>
       </c>
       <c r="N9" s="7">
-        <v>275908</v>
+        <v>306961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2058,46 +2037,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1323</v>
+        <v>1291</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>625</v>
+        <v>565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1947</v>
+        <v>1856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,199 +2088,199 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1390</v>
+        <v>1317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1594</v>
+        <v>1500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>2984</v>
+        <v>2817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>5441</v>
+        <v>5356</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
       </c>
       <c r="I12" s="7">
-        <v>11704</v>
+        <v>10781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>17145</v>
+        <v>16138</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>59155</v>
+        <v>57768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>59427</v>
+        <v>55956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
       </c>
       <c r="N13" s="7">
-        <v>118582</v>
+        <v>113724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>48985</v>
+        <v>50677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>46114</v>
+        <v>43122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
       </c>
       <c r="N14" s="7">
-        <v>95098</v>
+        <v>93799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,51 +2292,51 @@
         <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>116293</v>
+        <v>116409</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
       </c>
       <c r="I15" s="7">
-        <v>119464</v>
+        <v>111925</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>235757</v>
+        <v>228334</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2366,46 +2345,46 @@
         <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>19368</v>
+        <v>19125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>17986</v>
+        <v>16702</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>37354</v>
+        <v>35828</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,199 +2396,199 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>5761</v>
+        <v>5525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>9298</v>
+        <v>8673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>15059</v>
+        <v>14198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>26822</v>
+        <v>26429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>40501</v>
+        <v>37518</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>67323</v>
+        <v>63947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>35722</v>
+        <v>34884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>42327</v>
+        <v>39749</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
       </c>
       <c r="N19" s="7">
-        <v>78049</v>
+        <v>74633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>111</v>
       </c>
       <c r="D20" s="7">
-        <v>101741</v>
+        <v>100096</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
       </c>
       <c r="I20" s="7">
-        <v>95347</v>
+        <v>89768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
       </c>
       <c r="N20" s="7">
-        <v>197088</v>
+        <v>189864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,51 +2600,51 @@
         <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>189415</v>
+        <v>186059</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
       </c>
       <c r="I21" s="7">
-        <v>205458</v>
+        <v>192411</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>510</v>
       </c>
       <c r="N21" s="7">
-        <v>394873</v>
+        <v>378470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2674,46 +2653,46 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2262</v>
+        <v>2156</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>13820</v>
+        <v>12904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
       </c>
       <c r="N22" s="7">
-        <v>16082</v>
+        <v>15060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,199 +2704,199 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1099</v>
+        <v>1016</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>1856</v>
+        <v>1747</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>24952</v>
+        <v>23683</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
       </c>
       <c r="I24" s="7">
-        <v>28356</v>
+        <v>26472</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
       </c>
       <c r="N24" s="7">
-        <v>53308</v>
+        <v>50155</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
         <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>32675</v>
+        <v>30882</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
       </c>
       <c r="I25" s="7">
-        <v>29780</v>
+        <v>27664</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
       </c>
       <c r="N25" s="7">
-        <v>62455</v>
+        <v>58546</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7">
         <v>82</v>
       </c>
       <c r="D26" s="7">
-        <v>116472</v>
+        <v>111827</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>137</v>
       </c>
       <c r="I26" s="7">
-        <v>111691</v>
+        <v>102340</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
       </c>
       <c r="N26" s="7">
-        <v>228163</v>
+        <v>214167</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,51 +2908,51 @@
         <v>160</v>
       </c>
       <c r="D27" s="7">
-        <v>177118</v>
+        <v>169279</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>274</v>
       </c>
       <c r="I27" s="7">
-        <v>184746</v>
+        <v>170396</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>434</v>
       </c>
       <c r="N27" s="7">
-        <v>361864</v>
+        <v>339675</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2982,46 +2961,46 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>4532</v>
+        <v>4132</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1017</v>
+        <v>940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
       </c>
       <c r="N28" s="7">
-        <v>5549</v>
+        <v>5071</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,199 +3012,199 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2041</v>
+        <v>1854</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>2469</v>
+        <v>2241</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>3810</v>
+        <v>3524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>3971</v>
+        <v>3590</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
       </c>
       <c r="N30" s="7">
-        <v>7781</v>
+        <v>7114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>97</v>
       </c>
       <c r="D31" s="7">
-        <v>69455</v>
+        <v>63395</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>169</v>
       </c>
       <c r="I31" s="7">
-        <v>79678</v>
+        <v>72138</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="M31" s="7">
         <v>266</v>
       </c>
       <c r="N31" s="7">
-        <v>149134</v>
+        <v>135533</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>7782</v>
+        <v>6993</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
       </c>
       <c r="I32" s="7">
-        <v>12398</v>
+        <v>10937</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
       </c>
       <c r="N32" s="7">
-        <v>20180</v>
+        <v>17930</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,51 +3216,51 @@
         <v>121</v>
       </c>
       <c r="D33" s="7">
-        <v>87620</v>
+        <v>79898</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>202</v>
       </c>
       <c r="I33" s="7">
-        <v>97492</v>
+        <v>87992</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>323</v>
       </c>
       <c r="N33" s="7">
-        <v>185112</v>
+        <v>167890</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3290,46 +3269,46 @@
         <v>35</v>
       </c>
       <c r="D34" s="7">
-        <v>20016</v>
+        <v>19483</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>51</v>
       </c>
       <c r="I34" s="7">
-        <v>24557</v>
+        <v>23012</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>86</v>
       </c>
       <c r="N34" s="7">
-        <v>44573</v>
+        <v>42496</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,199 +3320,199 @@
         <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>5677</v>
+        <v>5527</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>2738</v>
+        <v>2535</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>8415</v>
+        <v>8062</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
         <v>37</v>
       </c>
       <c r="D36" s="7">
-        <v>31908</v>
+        <v>31862</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
       </c>
       <c r="I36" s="7">
-        <v>26260</v>
+        <v>24605</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
       </c>
       <c r="N36" s="7">
-        <v>58168</v>
+        <v>56467</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="7">
         <v>30</v>
       </c>
       <c r="D37" s="7">
-        <v>24502</v>
+        <v>23859</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
       </c>
       <c r="I37" s="7">
-        <v>16358</v>
+        <v>15333</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>60</v>
       </c>
       <c r="N37" s="7">
-        <v>40861</v>
+        <v>39192</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7">
         <v>138</v>
       </c>
       <c r="D38" s="7">
-        <v>107366</v>
+        <v>103857</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H38" s="7">
         <v>138</v>
       </c>
       <c r="I38" s="7">
-        <v>88944</v>
+        <v>82652</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M38" s="7">
         <v>276</v>
       </c>
       <c r="N38" s="7">
-        <v>196310</v>
+        <v>186509</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,51 +3524,51 @@
         <v>248</v>
       </c>
       <c r="D39" s="7">
-        <v>189468</v>
+        <v>184589</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" s="7">
         <v>271</v>
       </c>
       <c r="I39" s="7">
-        <v>158858</v>
+        <v>148137</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M39" s="7">
         <v>519</v>
       </c>
       <c r="N39" s="7">
-        <v>348327</v>
+        <v>332725</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3598,28 +3577,28 @@
         <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>3067</v>
+        <v>2911</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H40" s="7">
         <v>4</v>
       </c>
       <c r="I40" s="7">
-        <v>2737</v>
+        <v>2531</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>266</v>
@@ -3628,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="N40" s="7">
-        <v>5804</v>
+        <v>5442</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>267</v>
@@ -3649,7 +3628,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="7">
-        <v>2623</v>
+        <v>2447</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>270</v>
@@ -3664,184 +3643,184 @@
         <v>3</v>
       </c>
       <c r="I41" s="7">
-        <v>3206</v>
+        <v>2959</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
       </c>
       <c r="N41" s="7">
-        <v>5828</v>
+        <v>5406</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="7">
         <v>17</v>
       </c>
       <c r="D42" s="7">
-        <v>14069</v>
+        <v>13352</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H42" s="7">
         <v>22</v>
       </c>
       <c r="I42" s="7">
-        <v>16792</v>
+        <v>15277</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M42" s="7">
         <v>39</v>
       </c>
       <c r="N42" s="7">
-        <v>30861</v>
+        <v>28629</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7">
         <v>121</v>
       </c>
       <c r="D43" s="7">
-        <v>119774</v>
+        <v>116782</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H43" s="7">
         <v>183</v>
       </c>
       <c r="I43" s="7">
-        <v>126895</v>
+        <v>118900</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M43" s="7">
         <v>304</v>
       </c>
       <c r="N43" s="7">
-        <v>246669</v>
+        <v>235682</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="7">
         <v>139</v>
       </c>
       <c r="D44" s="7">
-        <v>145909</v>
+        <v>143545</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>224</v>
       </c>
       <c r="I44" s="7">
-        <v>273300</v>
+        <v>356714</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>363</v>
       </c>
       <c r="N44" s="7">
-        <v>419209</v>
+        <v>500259</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,51 +3832,51 @@
         <v>283</v>
       </c>
       <c r="D45" s="7">
-        <v>285443</v>
+        <v>279037</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" s="7">
         <v>436</v>
       </c>
       <c r="I45" s="7">
-        <v>422929</v>
+        <v>496380</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M45" s="7">
         <v>719</v>
       </c>
       <c r="N45" s="7">
-        <v>708372</v>
+        <v>775417</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3906,46 +3885,46 @@
         <v>87</v>
       </c>
       <c r="D46" s="7">
-        <v>67454</v>
+        <v>58236</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H46" s="7">
         <v>116</v>
       </c>
       <c r="I46" s="7">
-        <v>76905</v>
+        <v>65043</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M46" s="7">
         <v>203</v>
       </c>
       <c r="N46" s="7">
-        <v>144359</v>
+        <v>123279</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,199 +3936,199 @@
         <v>71</v>
       </c>
       <c r="D47" s="7">
-        <v>57637</v>
+        <v>49635</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
         <v>73</v>
       </c>
       <c r="I47" s="7">
-        <v>51259</v>
+        <v>43349</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M47" s="7">
         <v>144</v>
       </c>
       <c r="N47" s="7">
-        <v>108896</v>
+        <v>92984</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="7">
         <v>62</v>
       </c>
       <c r="D48" s="7">
-        <v>56331</v>
+        <v>48055</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H48" s="7">
         <v>74</v>
       </c>
       <c r="I48" s="7">
-        <v>54022</v>
+        <v>45767</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="M48" s="7">
         <v>136</v>
       </c>
       <c r="N48" s="7">
-        <v>110353</v>
+        <v>93822</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="7">
         <v>133</v>
       </c>
       <c r="D49" s="7">
-        <v>145505</v>
+        <v>123546</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H49" s="7">
         <v>133</v>
       </c>
       <c r="I49" s="7">
-        <v>105725</v>
+        <v>89286</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M49" s="7">
         <v>266</v>
       </c>
       <c r="N49" s="7">
-        <v>251229</v>
+        <v>212831</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="7">
         <v>59</v>
       </c>
       <c r="D50" s="7">
-        <v>129326</v>
+        <v>310755</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H50" s="7">
         <v>74</v>
       </c>
       <c r="I50" s="7">
-        <v>76586</v>
+        <v>62824</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M50" s="7">
         <v>133</v>
       </c>
       <c r="N50" s="7">
-        <v>205912</v>
+        <v>373579</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,46 +4140,46 @@
         <v>412</v>
       </c>
       <c r="D51" s="7">
-        <v>456253</v>
+        <v>590227</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" s="7">
         <v>470</v>
       </c>
       <c r="I51" s="7">
-        <v>364497</v>
+        <v>306269</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51" s="7">
         <v>882</v>
       </c>
       <c r="N51" s="7">
-        <v>820749</v>
+        <v>896495</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,46 +4193,46 @@
         <v>158</v>
       </c>
       <c r="D52" s="7">
-        <v>118022</v>
+        <v>107335</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H52" s="7">
         <v>234</v>
       </c>
       <c r="I52" s="7">
-        <v>138596</v>
+        <v>122688</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="M52" s="7">
         <v>392</v>
       </c>
       <c r="N52" s="7">
-        <v>256617</v>
+        <v>230023</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,199 +4244,199 @@
         <v>95</v>
       </c>
       <c r="D53" s="7">
-        <v>75886</v>
+        <v>67036</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H53" s="7">
         <v>100</v>
       </c>
       <c r="I53" s="7">
-        <v>69621</v>
+        <v>60419</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M53" s="7">
         <v>195</v>
       </c>
       <c r="N53" s="7">
-        <v>145507</v>
+        <v>127455</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>365</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" s="7">
         <v>195</v>
       </c>
       <c r="D54" s="7">
-        <v>163493</v>
+        <v>152429</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H54" s="7">
         <v>295</v>
       </c>
       <c r="I54" s="7">
-        <v>184966</v>
+        <v>167503</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>370</v>
+        <v>99</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M54" s="7">
         <v>490</v>
       </c>
       <c r="N54" s="7">
-        <v>348459</v>
+        <v>319932</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7">
         <v>533</v>
       </c>
       <c r="D55" s="7">
-        <v>501157</v>
+        <v>467334</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H55" s="7">
         <v>751</v>
       </c>
       <c r="I55" s="7">
-        <v>480008</v>
+        <v>439945</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M55" s="7">
         <v>1284</v>
       </c>
       <c r="N55" s="7">
-        <v>981165</v>
+        <v>907279</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C56" s="7">
         <v>718</v>
       </c>
       <c r="D56" s="7">
-        <v>774543</v>
+        <v>964527</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="H56" s="7">
         <v>1024</v>
       </c>
       <c r="I56" s="7">
-        <v>824670</v>
+        <v>876751</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M56" s="7">
         <v>1742</v>
       </c>
       <c r="N56" s="7">
-        <v>1599213</v>
+        <v>1841278</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,51 +4448,51 @@
         <v>1699</v>
       </c>
       <c r="D57" s="7">
-        <v>1633101</v>
+        <v>1758661</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" s="7">
         <v>2404</v>
       </c>
       <c r="I57" s="7">
-        <v>1697862</v>
+        <v>1667306</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M57" s="7">
         <v>4103</v>
       </c>
       <c r="N57" s="7">
-        <v>3330962</v>
+        <v>3425967</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
